--- a/resources/DCData.xlsx
+++ b/resources/DCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a212672444/eclipse-workspace/dc-datacreator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B3EADA-A56C-C44F-8D99-56E9849075EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B930D-5521-F947-9A9E-B28463E0113C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="588">
   <si>
     <t>Name</t>
   </si>
@@ -1195,592 +1195,601 @@
     <t>Malleswaram West S.O</t>
   </si>
   <si>
+    <t>Aalap</t>
+  </si>
+  <si>
+    <t>A F Station Yelahanka S.O</t>
+  </si>
+  <si>
+    <t>Agram S.O</t>
+  </si>
+  <si>
+    <t>Aalim</t>
+  </si>
+  <si>
+    <t>Air Force Hospital S.O</t>
+  </si>
+  <si>
+    <t>Aalok</t>
+  </si>
+  <si>
+    <t>Amruthahalli B.O</t>
+  </si>
+  <si>
+    <t>Aaman</t>
+  </si>
+  <si>
+    <t>Anandnagar S.O (Bangalore)</t>
+  </si>
+  <si>
+    <t>Aamil</t>
+  </si>
+  <si>
+    <t>Arabic College S.O</t>
+  </si>
+  <si>
+    <t>Aamir</t>
+  </si>
+  <si>
+    <t>Attur B.O</t>
+  </si>
+  <si>
+    <t>Aamod</t>
+  </si>
+  <si>
+    <t>Austin Town S.O</t>
+  </si>
+  <si>
+    <t>Aanan</t>
+  </si>
+  <si>
+    <t>Banaswadi S.O</t>
+  </si>
+  <si>
+    <t>Aanand</t>
+  </si>
+  <si>
+    <t>Bangalore Bazaar S.O</t>
+  </si>
+  <si>
+    <t>Aanandswarup</t>
+  </si>
+  <si>
+    <t>Bangalore International Airport S.O</t>
+  </si>
+  <si>
+    <t>Aananthan</t>
+  </si>
+  <si>
+    <t>Bangalore Sub Foreign Post S.O</t>
+  </si>
+  <si>
+    <t>Aanav</t>
+  </si>
+  <si>
+    <t>Bellandur S.O</t>
+  </si>
+  <si>
+    <t>Aandaleeb</t>
+  </si>
+  <si>
+    <t>Benson Town S.O</t>
+  </si>
+  <si>
+    <t>Aanjaneya</t>
+  </si>
+  <si>
+    <t>Bhattarahalli S.O</t>
+  </si>
+  <si>
+    <t>Aanjay</t>
+  </si>
+  <si>
+    <t>Bidrahalli B.O</t>
+  </si>
+  <si>
+    <t>Aapt</t>
+  </si>
+  <si>
+    <t>BSF Campus Yelahanka S.O</t>
+  </si>
+  <si>
+    <t>Aaqil</t>
+  </si>
+  <si>
+    <t>Byatarayanapura B.O</t>
+  </si>
+  <si>
+    <t>C.V.Raman Nagar S.O</t>
+  </si>
+  <si>
+    <t>Aaraadhak</t>
+  </si>
+  <si>
+    <t>CMM Court Complex S.O</t>
+  </si>
+  <si>
+    <t>Aaranyan</t>
+  </si>
+  <si>
+    <t>CMP Centre And School S.O</t>
+  </si>
+  <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>CRPF Campus Yelahanka S.O</t>
+  </si>
+  <si>
+    <t>Aardik</t>
+  </si>
+  <si>
+    <t>Devanagundi B.O</t>
+  </si>
+  <si>
+    <t>Aarhant</t>
+  </si>
+  <si>
+    <t>Devasandra S.O</t>
+  </si>
+  <si>
+    <t>Aari</t>
+  </si>
+  <si>
+    <t>Doddagubbi B.O</t>
+  </si>
+  <si>
+    <t>Aaric</t>
+  </si>
+  <si>
+    <t>Doddanekkundi B.O</t>
+  </si>
+  <si>
+    <t>Aarif</t>
+  </si>
+  <si>
+    <t>Domlur S.O</t>
+  </si>
+  <si>
+    <t>Aarin</t>
+  </si>
+  <si>
+    <t>Doorvaninagar S.O</t>
+  </si>
+  <si>
+    <t>Aaris</t>
+  </si>
+  <si>
+    <t>Dr. Ambedkar Veedhi S.O</t>
+  </si>
+  <si>
+    <t>Aarit</t>
+  </si>
+  <si>
+    <t>Dr. Shivarama Karanth Nagar S.O</t>
+  </si>
+  <si>
+    <t>Tech_1</t>
+  </si>
+  <si>
+    <t>Tech_2</t>
+  </si>
+  <si>
+    <t>Tech_3</t>
+  </si>
+  <si>
+    <t>Tech_4</t>
+  </si>
+  <si>
+    <t>Tech_5</t>
+  </si>
+  <si>
+    <t>Tech_6</t>
+  </si>
+  <si>
+    <t>Tech_7</t>
+  </si>
+  <si>
+    <t>Tech_8</t>
+  </si>
+  <si>
+    <t>Tech_9</t>
+  </si>
+  <si>
+    <t>Tech_10</t>
+  </si>
+  <si>
+    <t>Tech_11</t>
+  </si>
+  <si>
+    <t>Tech_12</t>
+  </si>
+  <si>
+    <t>Tech_13</t>
+  </si>
+  <si>
+    <t>Tech_14</t>
+  </si>
+  <si>
+    <t>Tech_15</t>
+  </si>
+  <si>
+    <t>Tech_16</t>
+  </si>
+  <si>
+    <t>Tech_17</t>
+  </si>
+  <si>
+    <t>Tech_18</t>
+  </si>
+  <si>
+    <t>Tech_19</t>
+  </si>
+  <si>
+    <t>Tech_20</t>
+  </si>
+  <si>
+    <t>Tech_21</t>
+  </si>
+  <si>
+    <t>Tech_22</t>
+  </si>
+  <si>
+    <t>Tech_23</t>
+  </si>
+  <si>
+    <t>Tech_24</t>
+  </si>
+  <si>
+    <t>Tech_25</t>
+  </si>
+  <si>
+    <t>Tech_26</t>
+  </si>
+  <si>
+    <t>Tech_27</t>
+  </si>
+  <si>
+    <t>Tech_28</t>
+  </si>
+  <si>
+    <t>Tech_29</t>
+  </si>
+  <si>
+    <t>Tech_30</t>
+  </si>
+  <si>
+    <t>Tech_31</t>
+  </si>
+  <si>
+    <t>Tech_32</t>
+  </si>
+  <si>
+    <t>Tech_33</t>
+  </si>
+  <si>
+    <t>Tech_34</t>
+  </si>
+  <si>
+    <t>Tech_35</t>
+  </si>
+  <si>
+    <t>Tech_36</t>
+  </si>
+  <si>
+    <t>Tech_37</t>
+  </si>
+  <si>
+    <t>Tech_38</t>
+  </si>
+  <si>
+    <t>Tech_39</t>
+  </si>
+  <si>
+    <t>Tech_40</t>
+  </si>
+  <si>
+    <t>Tech_41</t>
+  </si>
+  <si>
+    <t>Tech_42</t>
+  </si>
+  <si>
+    <t>Tech_43</t>
+  </si>
+  <si>
+    <t>Tech_44</t>
+  </si>
+  <si>
+    <t>Tech_45</t>
+  </si>
+  <si>
+    <t>Tech_46</t>
+  </si>
+  <si>
+    <t>Tech_47</t>
+  </si>
+  <si>
+    <t>Tech_48</t>
+  </si>
+  <si>
+    <t>Tech_49</t>
+  </si>
+  <si>
+    <t>Tech_50</t>
+  </si>
+  <si>
+    <t>Tech_51</t>
+  </si>
+  <si>
+    <t>Tech_52</t>
+  </si>
+  <si>
+    <t>Tech_53</t>
+  </si>
+  <si>
+    <t>Tech_54</t>
+  </si>
+  <si>
+    <t>Tech_55</t>
+  </si>
+  <si>
+    <t>Tech_56</t>
+  </si>
+  <si>
+    <t>Tech_57</t>
+  </si>
+  <si>
+    <t>Tech_58</t>
+  </si>
+  <si>
+    <t>Tech_59</t>
+  </si>
+  <si>
+    <t>Tech_60</t>
+  </si>
+  <si>
+    <t>Tech_61</t>
+  </si>
+  <si>
+    <t>Tech_62</t>
+  </si>
+  <si>
+    <t>Tech_63</t>
+  </si>
+  <si>
+    <t>Tech_64</t>
+  </si>
+  <si>
+    <t>Tech_65</t>
+  </si>
+  <si>
+    <t>Tech_66</t>
+  </si>
+  <si>
+    <t>Tech_67</t>
+  </si>
+  <si>
+    <t>Tech_68</t>
+  </si>
+  <si>
+    <t>Tech_69</t>
+  </si>
+  <si>
+    <t>Tech_70</t>
+  </si>
+  <si>
+    <t>Tech_71</t>
+  </si>
+  <si>
+    <t>Tech_72</t>
+  </si>
+  <si>
+    <t>Tech_73</t>
+  </si>
+  <si>
+    <t>Tech_74</t>
+  </si>
+  <si>
+    <t>Tech_75</t>
+  </si>
+  <si>
+    <t>Tech_76</t>
+  </si>
+  <si>
+    <t>Tech_77</t>
+  </si>
+  <si>
+    <t>Tech_78</t>
+  </si>
+  <si>
+    <t>Tech_79</t>
+  </si>
+  <si>
+    <t>Tech_80</t>
+  </si>
+  <si>
+    <t>Tech_81</t>
+  </si>
+  <si>
+    <t>Tech_82</t>
+  </si>
+  <si>
+    <t>Tech_83</t>
+  </si>
+  <si>
+    <t>Tech_84</t>
+  </si>
+  <si>
+    <t>Tech_85</t>
+  </si>
+  <si>
+    <t>Tech_86</t>
+  </si>
+  <si>
+    <t>Tech_87</t>
+  </si>
+  <si>
+    <t>Tech_88</t>
+  </si>
+  <si>
+    <t>Tech_89</t>
+  </si>
+  <si>
+    <t>Tech_90</t>
+  </si>
+  <si>
+    <t>sdxcdfafaf</t>
+  </si>
+  <si>
+    <t>TeamID</t>
+  </si>
+  <si>
+    <t>560108</t>
+  </si>
+  <si>
+    <t>560081</t>
+  </si>
+  <si>
+    <t>560053</t>
+  </si>
+  <si>
+    <t>560061</t>
+  </si>
+  <si>
+    <t>560060</t>
+  </si>
+  <si>
+    <t>560026</t>
+  </si>
+  <si>
+    <t>560029</t>
+  </si>
+  <si>
+    <t>560062</t>
+  </si>
+  <si>
+    <t>560100</t>
+  </si>
+  <si>
+    <t>560019</t>
+  </si>
+  <si>
+    <t>560107</t>
+  </si>
+  <si>
+    <t>560073</t>
+  </si>
+  <si>
+    <t>560009</t>
+  </si>
+  <si>
+    <t>560091</t>
+  </si>
+  <si>
+    <t>560079</t>
+  </si>
+  <si>
+    <t>560089</t>
+  </si>
+  <si>
+    <t>560090</t>
+  </si>
+  <si>
+    <t>560021</t>
+  </si>
+  <si>
+    <t>560104</t>
+  </si>
+  <si>
+    <t>560088</t>
+  </si>
+  <si>
+    <t>560010</t>
+  </si>
+  <si>
+    <t>560014</t>
+  </si>
+  <si>
+    <t>560013</t>
+  </si>
+  <si>
+    <t>560015</t>
+  </si>
+  <si>
+    <t>560112</t>
+  </si>
+  <si>
+    <t>560058</t>
+  </si>
+  <si>
+    <t>560023</t>
+  </si>
+  <si>
+    <t>560086</t>
+  </si>
+  <si>
+    <t>560003</t>
+  </si>
+  <si>
+    <t>560055</t>
+  </si>
+  <si>
+    <t>560063</t>
+  </si>
+  <si>
+    <t>560092</t>
+  </si>
+  <si>
+    <t>560024</t>
+  </si>
+  <si>
+    <t>560045</t>
+  </si>
+  <si>
+    <t>560043</t>
+  </si>
+  <si>
+    <t>560300</t>
+  </si>
+  <si>
+    <t>560025</t>
+  </si>
+  <si>
+    <t>560046</t>
+  </si>
+  <si>
+    <t>560093</t>
+  </si>
+  <si>
+    <t>560067</t>
+  </si>
+  <si>
+    <t>560036</t>
+  </si>
+  <si>
+    <t>560077</t>
+  </si>
+  <si>
+    <t>560037</t>
+  </si>
+  <si>
+    <t>560071</t>
+  </si>
+  <si>
+    <t>560016</t>
+  </si>
+  <si>
     <t>a1Q1F000000NK12UAG</t>
   </si>
   <si>
-    <t>Aalap</t>
-  </si>
-  <si>
-    <t>A F Station Yelahanka S.O</t>
-  </si>
-  <si>
-    <t>Agram S.O</t>
-  </si>
-  <si>
-    <t>Aalim</t>
-  </si>
-  <si>
-    <t>Air Force Hospital S.O</t>
-  </si>
-  <si>
-    <t>Aalok</t>
-  </si>
-  <si>
-    <t>Amruthahalli B.O</t>
-  </si>
-  <si>
-    <t>Aaman</t>
-  </si>
-  <si>
-    <t>Anandnagar S.O (Bangalore)</t>
-  </si>
-  <si>
-    <t>Aamil</t>
-  </si>
-  <si>
-    <t>Arabic College S.O</t>
-  </si>
-  <si>
-    <t>Aamir</t>
-  </si>
-  <si>
-    <t>Attur B.O</t>
-  </si>
-  <si>
-    <t>Aamod</t>
-  </si>
-  <si>
-    <t>Austin Town S.O</t>
-  </si>
-  <si>
-    <t>Aanan</t>
-  </si>
-  <si>
-    <t>Banaswadi S.O</t>
-  </si>
-  <si>
-    <t>Aanand</t>
-  </si>
-  <si>
-    <t>Bangalore Bazaar S.O</t>
-  </si>
-  <si>
-    <t>Aanandswarup</t>
-  </si>
-  <si>
-    <t>Bangalore International Airport S.O</t>
-  </si>
-  <si>
-    <t>Aananthan</t>
-  </si>
-  <si>
-    <t>Bangalore Sub Foreign Post S.O</t>
-  </si>
-  <si>
-    <t>Aanav</t>
-  </si>
-  <si>
-    <t>Bellandur S.O</t>
-  </si>
-  <si>
-    <t>Aandaleeb</t>
-  </si>
-  <si>
-    <t>Benson Town S.O</t>
-  </si>
-  <si>
-    <t>Aanjaneya</t>
-  </si>
-  <si>
-    <t>Bhattarahalli S.O</t>
-  </si>
-  <si>
-    <t>Aanjay</t>
-  </si>
-  <si>
-    <t>Bidrahalli B.O</t>
-  </si>
-  <si>
-    <t>Aapt</t>
-  </si>
-  <si>
-    <t>BSF Campus Yelahanka S.O</t>
-  </si>
-  <si>
-    <t>Aaqil</t>
-  </si>
-  <si>
-    <t>Byatarayanapura B.O</t>
-  </si>
-  <si>
-    <t>C.V.Raman Nagar S.O</t>
-  </si>
-  <si>
-    <t>Aaraadhak</t>
-  </si>
-  <si>
-    <t>CMM Court Complex S.O</t>
-  </si>
-  <si>
-    <t>Aaranyan</t>
-  </si>
-  <si>
-    <t>CMP Centre And School S.O</t>
-  </si>
-  <si>
-    <t>Aarav</t>
-  </si>
-  <si>
-    <t>CRPF Campus Yelahanka S.O</t>
-  </si>
-  <si>
-    <t>Aardik</t>
-  </si>
-  <si>
-    <t>Devanagundi B.O</t>
-  </si>
-  <si>
-    <t>Aarhant</t>
-  </si>
-  <si>
-    <t>Devasandra S.O</t>
-  </si>
-  <si>
-    <t>Aari</t>
-  </si>
-  <si>
-    <t>Doddagubbi B.O</t>
-  </si>
-  <si>
-    <t>Aaric</t>
-  </si>
-  <si>
-    <t>Doddanekkundi B.O</t>
-  </si>
-  <si>
-    <t>Aarif</t>
-  </si>
-  <si>
-    <t>Domlur S.O</t>
-  </si>
-  <si>
-    <t>Aarin</t>
-  </si>
-  <si>
-    <t>Doorvaninagar S.O</t>
-  </si>
-  <si>
-    <t>Aaris</t>
-  </si>
-  <si>
-    <t>Dr. Ambedkar Veedhi S.O</t>
-  </si>
-  <si>
-    <t>Aarit</t>
-  </si>
-  <si>
-    <t>Dr. Shivarama Karanth Nagar S.O</t>
-  </si>
-  <si>
-    <t>Tech_1</t>
-  </si>
-  <si>
-    <t>Tech_2</t>
-  </si>
-  <si>
-    <t>Tech_3</t>
-  </si>
-  <si>
-    <t>Tech_4</t>
-  </si>
-  <si>
-    <t>Tech_5</t>
-  </si>
-  <si>
-    <t>Tech_6</t>
-  </si>
-  <si>
-    <t>Tech_7</t>
-  </si>
-  <si>
-    <t>Tech_8</t>
-  </si>
-  <si>
-    <t>Tech_9</t>
-  </si>
-  <si>
-    <t>Tech_10</t>
-  </si>
-  <si>
-    <t>Tech_11</t>
-  </si>
-  <si>
-    <t>Tech_12</t>
-  </si>
-  <si>
-    <t>Tech_13</t>
-  </si>
-  <si>
-    <t>Tech_14</t>
-  </si>
-  <si>
-    <t>Tech_15</t>
-  </si>
-  <si>
-    <t>Tech_16</t>
-  </si>
-  <si>
-    <t>Tech_17</t>
-  </si>
-  <si>
-    <t>Tech_18</t>
-  </si>
-  <si>
-    <t>Tech_19</t>
-  </si>
-  <si>
-    <t>Tech_20</t>
-  </si>
-  <si>
-    <t>Tech_21</t>
-  </si>
-  <si>
-    <t>Tech_22</t>
-  </si>
-  <si>
-    <t>Tech_23</t>
-  </si>
-  <si>
-    <t>Tech_24</t>
-  </si>
-  <si>
-    <t>Tech_25</t>
-  </si>
-  <si>
-    <t>Tech_26</t>
-  </si>
-  <si>
-    <t>Tech_27</t>
-  </si>
-  <si>
-    <t>Tech_28</t>
-  </si>
-  <si>
-    <t>Tech_29</t>
-  </si>
-  <si>
-    <t>Tech_30</t>
-  </si>
-  <si>
-    <t>Tech_31</t>
-  </si>
-  <si>
-    <t>Tech_32</t>
-  </si>
-  <si>
-    <t>Tech_33</t>
-  </si>
-  <si>
-    <t>Tech_34</t>
-  </si>
-  <si>
-    <t>Tech_35</t>
-  </si>
-  <si>
-    <t>Tech_36</t>
-  </si>
-  <si>
-    <t>Tech_37</t>
-  </si>
-  <si>
-    <t>Tech_38</t>
-  </si>
-  <si>
-    <t>Tech_39</t>
-  </si>
-  <si>
-    <t>Tech_40</t>
-  </si>
-  <si>
-    <t>Tech_41</t>
-  </si>
-  <si>
-    <t>Tech_42</t>
-  </si>
-  <si>
-    <t>Tech_43</t>
-  </si>
-  <si>
-    <t>Tech_44</t>
-  </si>
-  <si>
-    <t>Tech_45</t>
-  </si>
-  <si>
-    <t>Tech_46</t>
-  </si>
-  <si>
-    <t>Tech_47</t>
-  </si>
-  <si>
-    <t>Tech_48</t>
-  </si>
-  <si>
-    <t>Tech_49</t>
-  </si>
-  <si>
-    <t>Tech_50</t>
-  </si>
-  <si>
-    <t>Tech_51</t>
-  </si>
-  <si>
-    <t>Tech_52</t>
-  </si>
-  <si>
-    <t>Tech_53</t>
-  </si>
-  <si>
-    <t>Tech_54</t>
-  </si>
-  <si>
-    <t>Tech_55</t>
-  </si>
-  <si>
-    <t>Tech_56</t>
-  </si>
-  <si>
-    <t>Tech_57</t>
-  </si>
-  <si>
-    <t>Tech_58</t>
-  </si>
-  <si>
-    <t>Tech_59</t>
-  </si>
-  <si>
-    <t>Tech_60</t>
-  </si>
-  <si>
-    <t>Tech_61</t>
-  </si>
-  <si>
-    <t>Tech_62</t>
-  </si>
-  <si>
-    <t>Tech_63</t>
-  </si>
-  <si>
-    <t>Tech_64</t>
-  </si>
-  <si>
-    <t>Tech_65</t>
-  </si>
-  <si>
-    <t>Tech_66</t>
-  </si>
-  <si>
-    <t>Tech_67</t>
-  </si>
-  <si>
-    <t>Tech_68</t>
-  </si>
-  <si>
-    <t>Tech_69</t>
-  </si>
-  <si>
-    <t>Tech_70</t>
-  </si>
-  <si>
-    <t>Tech_71</t>
-  </si>
-  <si>
-    <t>Tech_72</t>
-  </si>
-  <si>
-    <t>Tech_73</t>
-  </si>
-  <si>
-    <t>Tech_74</t>
-  </si>
-  <si>
-    <t>Tech_75</t>
-  </si>
-  <si>
-    <t>Tech_76</t>
-  </si>
-  <si>
-    <t>Tech_77</t>
-  </si>
-  <si>
-    <t>Tech_78</t>
-  </si>
-  <si>
-    <t>Tech_79</t>
-  </si>
-  <si>
-    <t>Tech_80</t>
-  </si>
-  <si>
-    <t>Tech_81</t>
-  </si>
-  <si>
-    <t>Tech_82</t>
-  </si>
-  <si>
-    <t>Tech_83</t>
-  </si>
-  <si>
-    <t>Tech_84</t>
-  </si>
-  <si>
-    <t>Tech_85</t>
-  </si>
-  <si>
-    <t>Tech_86</t>
-  </si>
-  <si>
-    <t>Tech_87</t>
-  </si>
-  <si>
-    <t>Tech_88</t>
-  </si>
-  <si>
-    <t>Tech_89</t>
-  </si>
-  <si>
-    <t>Tech_90</t>
-  </si>
-  <si>
-    <t>sdxcdfafaf</t>
-  </si>
-  <si>
-    <t>TeamID</t>
-  </si>
-  <si>
-    <t>560108</t>
-  </si>
-  <si>
-    <t>560081</t>
-  </si>
-  <si>
-    <t>560053</t>
-  </si>
-  <si>
-    <t>560061</t>
-  </si>
-  <si>
-    <t>560060</t>
-  </si>
-  <si>
-    <t>560026</t>
-  </si>
-  <si>
-    <t>560029</t>
-  </si>
-  <si>
-    <t>560062</t>
-  </si>
-  <si>
-    <t>560100</t>
-  </si>
-  <si>
-    <t>560019</t>
-  </si>
-  <si>
-    <t>560107</t>
-  </si>
-  <si>
-    <t>560073</t>
-  </si>
-  <si>
-    <t>560009</t>
-  </si>
-  <si>
-    <t>560091</t>
-  </si>
-  <si>
-    <t>560079</t>
-  </si>
-  <si>
-    <t>560089</t>
-  </si>
-  <si>
-    <t>560090</t>
-  </si>
-  <si>
-    <t>560021</t>
-  </si>
-  <si>
-    <t>560104</t>
-  </si>
-  <si>
-    <t>560088</t>
-  </si>
-  <si>
-    <t>560010</t>
-  </si>
-  <si>
-    <t>560014</t>
-  </si>
-  <si>
-    <t>560013</t>
-  </si>
-  <si>
-    <t>560015</t>
-  </si>
-  <si>
-    <t>560112</t>
-  </si>
-  <si>
-    <t>560058</t>
-  </si>
-  <si>
-    <t>560023</t>
-  </si>
-  <si>
-    <t>560086</t>
-  </si>
-  <si>
-    <t>560003</t>
-  </si>
-  <si>
-    <t>560055</t>
-  </si>
-  <si>
-    <t>560063</t>
-  </si>
-  <si>
-    <t>560092</t>
-  </si>
-  <si>
-    <t>560024</t>
-  </si>
-  <si>
-    <t>560045</t>
-  </si>
-  <si>
-    <t>560043</t>
-  </si>
-  <si>
-    <t>560300</t>
-  </si>
-  <si>
-    <t>560025</t>
-  </si>
-  <si>
-    <t>560046</t>
-  </si>
-  <si>
-    <t>560093</t>
-  </si>
-  <si>
-    <t>560067</t>
-  </si>
-  <si>
-    <t>560036</t>
-  </si>
-  <si>
-    <t>560077</t>
-  </si>
-  <si>
-    <t>560037</t>
-  </si>
-  <si>
-    <t>560071</t>
-  </si>
-  <si>
-    <t>560016</t>
+    <t>a1M1F000001EeLYUA0</t>
+  </si>
+  <si>
+    <t>a1M1F000001EeLdUAK</t>
+  </si>
+  <si>
+    <t>a1M1F000001EeLiUAK</t>
   </si>
 </sst>
 </file>
@@ -4148,11 +4157,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="2" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4163,7 +4172,7 @@
         <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>257</v>
@@ -4322,17 +4331,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081F5C48-5C8A-2B40-880E-78E2D2FE281A}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4399,13 +4408,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D2" t="s">
         <v>268</v>
@@ -4440,13 +4449,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D3" t="s">
         <v>272</v>
@@ -4481,13 +4490,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
-        <v>538</v>
+        <v>587</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D4" t="s">
         <v>274</v>
@@ -4522,13 +4531,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C5" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D5" t="s">
         <v>276</v>
@@ -4537,7 +4546,7 @@
         <v>277</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -4563,13 +4572,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D6" t="s">
         <v>278</v>
@@ -4604,13 +4613,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D7" t="s">
         <v>278</v>
@@ -4645,13 +4654,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D8" t="s">
         <v>281</v>
@@ -4686,13 +4695,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D9" t="s">
         <v>283</v>
@@ -4727,13 +4736,13 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D10" t="s">
         <v>285</v>
@@ -4768,13 +4777,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D11" t="s">
         <v>287</v>
@@ -4809,13 +4818,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C12" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D12" t="s">
         <v>289</v>
@@ -4850,13 +4859,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D13" t="s">
         <v>291</v>
@@ -4891,13 +4900,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D14" t="s">
         <v>293</v>
@@ -4932,13 +4941,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C15" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D15" t="s">
         <v>295</v>
@@ -4973,13 +4982,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C16" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D16" t="s">
         <v>297</v>
@@ -5014,13 +5023,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C17" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D17" t="s">
         <v>299</v>
@@ -5055,13 +5064,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C18" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D18" t="s">
         <v>301</v>
@@ -5096,13 +5105,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D19" t="s">
         <v>303</v>
@@ -5137,13 +5146,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C20" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D20" t="s">
         <v>305</v>
@@ -5178,13 +5187,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C21" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D21" t="s">
         <v>307</v>
@@ -5219,13 +5228,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C22" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D22" t="s">
         <v>309</v>
@@ -5234,7 +5243,7 @@
         <v>310</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
@@ -5260,13 +5269,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C23" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D23" t="s">
         <v>311</v>
@@ -5275,7 +5284,7 @@
         <v>312</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
@@ -5301,13 +5310,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C24" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D24" t="s">
         <v>313</v>
@@ -5316,7 +5325,7 @@
         <v>314</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G24" t="s">
         <v>50</v>
@@ -5342,13 +5351,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C25" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D25" t="s">
         <v>315</v>
@@ -5357,7 +5366,7 @@
         <v>316</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G25" t="s">
         <v>50</v>
@@ -5383,13 +5392,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C26" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D26" t="s">
         <v>317</v>
@@ -5424,13 +5433,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C27" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D27" t="s">
         <v>319</v>
@@ -5439,7 +5448,7 @@
         <v>320</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G27" t="s">
         <v>50</v>
@@ -5465,13 +5474,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C28" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D28" t="s">
         <v>321</v>
@@ -5480,7 +5489,7 @@
         <v>322</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
@@ -5506,13 +5515,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C29" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D29" t="s">
         <v>323</v>
@@ -5521,7 +5530,7 @@
         <v>324</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G29" t="s">
         <v>50</v>
@@ -5547,13 +5556,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C30" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D30" t="s">
         <v>325</v>
@@ -5562,7 +5571,7 @@
         <v>326</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -5588,13 +5597,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C31" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D31" t="s">
         <v>327</v>
@@ -5603,7 +5612,7 @@
         <v>328</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G31" t="s">
         <v>50</v>
@@ -5629,13 +5638,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C32" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D32" t="s">
         <v>329</v>
@@ -5644,7 +5653,7 @@
         <v>330</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G32" t="s">
         <v>50</v>
@@ -5670,13 +5679,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C33" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D33" t="s">
         <v>331</v>
@@ -5685,7 +5694,7 @@
         <v>332</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G33" t="s">
         <v>50</v>
@@ -5711,13 +5720,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C34" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D34" t="s">
         <v>333</v>
@@ -5752,13 +5761,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C35" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D35" t="s">
         <v>335</v>
@@ -5767,7 +5776,7 @@
         <v>336</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -5793,13 +5802,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C36" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D36" t="s">
         <v>337</v>
@@ -5808,7 +5817,7 @@
         <v>338</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G36" t="s">
         <v>50</v>
@@ -5834,13 +5843,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D37" t="s">
         <v>339</v>
@@ -5849,7 +5858,7 @@
         <v>340</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G37" t="s">
         <v>50</v>
@@ -5875,13 +5884,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C38" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D38" t="s">
         <v>341</v>
@@ -5890,7 +5899,7 @@
         <v>342</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G38" t="s">
         <v>50</v>
@@ -5916,13 +5925,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C39" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D39" t="s">
         <v>343</v>
@@ -5957,13 +5966,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D40" t="s">
         <v>345</v>
@@ -5972,7 +5981,7 @@
         <v>346</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G40" t="s">
         <v>50</v>
@@ -5998,13 +6007,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C41" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D41" t="s">
         <v>347</v>
@@ -6013,7 +6022,7 @@
         <v>348</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -6039,13 +6048,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C42" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D42" t="s">
         <v>349</v>
@@ -6054,7 +6063,7 @@
         <v>350</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G42" t="s">
         <v>50</v>
@@ -6080,13 +6089,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C43" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D43" t="s">
         <v>351</v>
@@ -6095,7 +6104,7 @@
         <v>352</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -6121,13 +6130,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B44" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C44" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D44" t="s">
         <v>353</v>
@@ -6136,7 +6145,7 @@
         <v>354</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G44" t="s">
         <v>50</v>
@@ -6162,13 +6171,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C45" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D45" t="s">
         <v>355</v>
@@ -6177,7 +6186,7 @@
         <v>356</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -6203,13 +6212,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C46" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D46" t="s">
         <v>357</v>
@@ -6218,7 +6227,7 @@
         <v>358</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -6244,13 +6253,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C47" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D47" t="s">
         <v>359</v>
@@ -6259,7 +6268,7 @@
         <v>360</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -6285,13 +6294,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B48" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C48" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D48" t="s">
         <v>361</v>
@@ -6300,7 +6309,7 @@
         <v>362</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -6326,13 +6335,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B49" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C49" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D49" t="s">
         <v>363</v>
@@ -6341,7 +6350,7 @@
         <v>364</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G49" t="s">
         <v>50</v>
@@ -6367,13 +6376,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C50" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D50" t="s">
         <v>365</v>
@@ -6382,7 +6391,7 @@
         <v>366</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G50" t="s">
         <v>50</v>
@@ -6408,13 +6417,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B51" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C51" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D51" t="s">
         <v>367</v>
@@ -6423,7 +6432,7 @@
         <v>368</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G51" t="s">
         <v>50</v>
@@ -6449,13 +6458,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B52" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C52" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D52" t="s">
         <v>369</v>
@@ -6464,7 +6473,7 @@
         <v>370</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G52" t="s">
         <v>50</v>
@@ -6490,13 +6499,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B53" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C53" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D53" t="s">
         <v>371</v>
@@ -6505,7 +6514,7 @@
         <v>372</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G53" t="s">
         <v>50</v>
@@ -6531,13 +6540,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B54" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C54" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D54" t="s">
         <v>373</v>
@@ -6546,7 +6555,7 @@
         <v>374</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G54" t="s">
         <v>50</v>
@@ -6572,13 +6581,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B55" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C55" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D55" t="s">
         <v>375</v>
@@ -6587,7 +6596,7 @@
         <v>376</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G55" t="s">
         <v>50</v>
@@ -6613,13 +6622,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C56" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D56" t="s">
         <v>377</v>
@@ -6628,7 +6637,7 @@
         <v>378</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G56" t="s">
         <v>50</v>
@@ -6654,13 +6663,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C57" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D57" t="s">
         <v>379</v>
@@ -6669,7 +6678,7 @@
         <v>380</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G57" t="s">
         <v>50</v>
@@ -6695,13 +6704,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B58" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C58" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D58" t="s">
         <v>381</v>
@@ -6710,7 +6719,7 @@
         <v>382</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G58" t="s">
         <v>50</v>
@@ -6736,13 +6745,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B59" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C59" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D59" t="s">
         <v>383</v>
@@ -6751,7 +6760,7 @@
         <v>384</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G59" t="s">
         <v>50</v>
@@ -6777,13 +6786,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B60" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C60" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D60" t="s">
         <v>385</v>
@@ -6792,7 +6801,7 @@
         <v>386</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G60" t="s">
         <v>50</v>
@@ -6818,13 +6827,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C61" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D61" t="s">
         <v>387</v>
@@ -6833,7 +6842,7 @@
         <v>388</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G61" t="s">
         <v>50</v>
@@ -6859,22 +6868,22 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C62" t="s">
+        <v>584</v>
+      </c>
+      <c r="D62" t="s">
         <v>389</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>390</v>
       </c>
-      <c r="E62" t="s">
-        <v>391</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G62" t="s">
         <v>50</v>
@@ -6900,19 +6909,19 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C63" t="s">
+        <v>584</v>
+      </c>
+      <c r="D63" t="s">
         <v>389</v>
       </c>
-      <c r="D63" t="s">
-        <v>390</v>
-      </c>
       <c r="E63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>87</v>
@@ -6941,19 +6950,19 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C64" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D64" t="s">
+        <v>392</v>
+      </c>
+      <c r="E64" t="s">
         <v>393</v>
-      </c>
-      <c r="E64" t="s">
-        <v>394</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>87</v>
@@ -6982,22 +6991,22 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C65" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D65" t="s">
+        <v>394</v>
+      </c>
+      <c r="E65" t="s">
         <v>395</v>
       </c>
-      <c r="E65" t="s">
-        <v>396</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G65" t="s">
         <v>50</v>
@@ -7023,22 +7032,22 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C66" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D66" t="s">
+        <v>396</v>
+      </c>
+      <c r="E66" t="s">
         <v>397</v>
       </c>
-      <c r="E66" t="s">
-        <v>398</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G66" t="s">
         <v>50</v>
@@ -7064,22 +7073,22 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B67" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C67" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D67" t="s">
+        <v>398</v>
+      </c>
+      <c r="E67" t="s">
         <v>399</v>
       </c>
-      <c r="E67" t="s">
-        <v>400</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G67" t="s">
         <v>50</v>
@@ -7105,19 +7114,19 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C68" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D68" t="s">
+        <v>400</v>
+      </c>
+      <c r="E68" t="s">
         <v>401</v>
-      </c>
-      <c r="E68" t="s">
-        <v>402</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>201</v>
@@ -7146,19 +7155,19 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B69" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C69" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D69" t="s">
+        <v>402</v>
+      </c>
+      <c r="E69" t="s">
         <v>403</v>
-      </c>
-      <c r="E69" t="s">
-        <v>404</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>255</v>
@@ -7187,22 +7196,22 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B70" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D70" t="s">
+        <v>404</v>
+      </c>
+      <c r="E70" t="s">
         <v>405</v>
       </c>
-      <c r="E70" t="s">
-        <v>406</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G70" t="s">
         <v>50</v>
@@ -7228,19 +7237,19 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C71" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D71" t="s">
+        <v>406</v>
+      </c>
+      <c r="E71" t="s">
         <v>407</v>
-      </c>
-      <c r="E71" t="s">
-        <v>408</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>198</v>
@@ -7269,22 +7278,22 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B72" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C72" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D72" t="s">
+        <v>408</v>
+      </c>
+      <c r="E72" t="s">
         <v>409</v>
       </c>
-      <c r="E72" t="s">
-        <v>410</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G72" t="s">
         <v>50</v>
@@ -7310,22 +7319,22 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B73" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C73" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D73" t="s">
+        <v>410</v>
+      </c>
+      <c r="E73" t="s">
         <v>411</v>
       </c>
-      <c r="E73" t="s">
-        <v>412</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G73" t="s">
         <v>50</v>
@@ -7351,19 +7360,19 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B74" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C74" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D74" t="s">
+        <v>412</v>
+      </c>
+      <c r="E74" t="s">
         <v>413</v>
-      </c>
-      <c r="E74" t="s">
-        <v>414</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>96</v>
@@ -7392,22 +7401,22 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B75" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C75" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D75" t="s">
+        <v>414</v>
+      </c>
+      <c r="E75" t="s">
         <v>415</v>
       </c>
-      <c r="E75" t="s">
-        <v>416</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G75" t="s">
         <v>50</v>
@@ -7433,19 +7442,19 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C76" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D76" t="s">
+        <v>416</v>
+      </c>
+      <c r="E76" t="s">
         <v>417</v>
-      </c>
-      <c r="E76" t="s">
-        <v>418</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>97</v>
@@ -7474,19 +7483,19 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B77" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C77" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D77" t="s">
+        <v>418</v>
+      </c>
+      <c r="E77" t="s">
         <v>419</v>
-      </c>
-      <c r="E77" t="s">
-        <v>420</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>97</v>
@@ -7515,22 +7524,22 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B78" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C78" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D78" t="s">
+        <v>420</v>
+      </c>
+      <c r="E78" t="s">
         <v>421</v>
       </c>
-      <c r="E78" t="s">
-        <v>422</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G78" t="s">
         <v>50</v>
@@ -7556,22 +7565,22 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C79" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D79" t="s">
+        <v>422</v>
+      </c>
+      <c r="E79" t="s">
         <v>423</v>
       </c>
-      <c r="E79" t="s">
-        <v>424</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G79" t="s">
         <v>50</v>
@@ -7597,22 +7606,22 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C80" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G80" t="s">
         <v>50</v>
@@ -7638,19 +7647,19 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B81" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C81" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D81" t="s">
+        <v>425</v>
+      </c>
+      <c r="E81" t="s">
         <v>426</v>
-      </c>
-      <c r="E81" t="s">
-        <v>427</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>198</v>
@@ -7679,22 +7688,22 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B82" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C82" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D82" t="s">
+        <v>427</v>
+      </c>
+      <c r="E82" t="s">
         <v>428</v>
       </c>
-      <c r="E82" t="s">
-        <v>429</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G82" t="s">
         <v>50</v>
@@ -7720,19 +7729,19 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C83" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D83" t="s">
+        <v>429</v>
+      </c>
+      <c r="E83" t="s">
         <v>430</v>
-      </c>
-      <c r="E83" t="s">
-        <v>431</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>201</v>
@@ -7761,22 +7770,22 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C84" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D84" t="s">
+        <v>431</v>
+      </c>
+      <c r="E84" t="s">
         <v>432</v>
       </c>
-      <c r="E84" t="s">
-        <v>433</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G84" t="s">
         <v>50</v>
@@ -7802,22 +7811,22 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B85" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C85" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D85" t="s">
+        <v>433</v>
+      </c>
+      <c r="E85" t="s">
         <v>434</v>
       </c>
-      <c r="E85" t="s">
-        <v>435</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G85" t="s">
         <v>50</v>
@@ -7843,22 +7852,22 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B86" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C86" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D86" t="s">
+        <v>435</v>
+      </c>
+      <c r="E86" t="s">
         <v>436</v>
       </c>
-      <c r="E86" t="s">
-        <v>437</v>
-      </c>
       <c r="F86" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G86" t="s">
         <v>50</v>
@@ -7884,22 +7893,22 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C87" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D87" t="s">
+        <v>437</v>
+      </c>
+      <c r="E87" t="s">
         <v>438</v>
       </c>
-      <c r="E87" t="s">
-        <v>439</v>
-      </c>
       <c r="F87" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G87" t="s">
         <v>50</v>
@@ -7925,22 +7934,22 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D88" t="s">
+        <v>439</v>
+      </c>
+      <c r="E88" t="s">
         <v>440</v>
       </c>
-      <c r="E88" t="s">
-        <v>441</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G88" t="s">
         <v>50</v>
@@ -7966,22 +7975,22 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C89" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D89" t="s">
+        <v>441</v>
+      </c>
+      <c r="E89" t="s">
         <v>442</v>
       </c>
-      <c r="E89" t="s">
-        <v>443</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G89" t="s">
         <v>50</v>
@@ -8007,19 +8016,19 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B90" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C90" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D90" t="s">
+        <v>443</v>
+      </c>
+      <c r="E90" t="s">
         <v>444</v>
-      </c>
-      <c r="E90" t="s">
-        <v>445</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>198</v>
@@ -8048,22 +8057,22 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B91" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C91" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D91" t="s">
+        <v>445</v>
+      </c>
+      <c r="E91" t="s">
         <v>446</v>
       </c>
-      <c r="E91" t="s">
-        <v>447</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G91" t="s">
         <v>50</v>

--- a/resources/DCData.xlsx
+++ b/resources/DCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a212672444/eclipse-workspace/dc-datacreator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B930D-5521-F947-9A9E-B28463E0113C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB679244-287A-5647-AC44-A4ECB7E81587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="CASE" sheetId="5" r:id="rId5"/>
     <sheet name="TEAM" sheetId="6" r:id="rId6"/>
     <sheet name="TECHNICIAN" sheetId="7" r:id="rId7"/>
+    <sheet name="EVENTHOVER" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="608">
   <si>
     <t>Name</t>
   </si>
@@ -1790,6 +1791,66 @@
   </si>
   <si>
     <t>a1M1F000001EeLiUAK</t>
+  </si>
+  <si>
+    <t>EHOVER_1</t>
+  </si>
+  <si>
+    <t>a1Q1F000000NK14UAG</t>
+  </si>
+  <si>
+    <t>a1Q1F000000NK13UAG</t>
+  </si>
+  <si>
+    <t>DispRec</t>
+  </si>
+  <si>
+    <t>0051F00000249NCQAY</t>
+  </si>
+  <si>
+    <t>EHOVER_2</t>
+  </si>
+  <si>
+    <t>EHOVER_3</t>
+  </si>
+  <si>
+    <t>EHOVER_4</t>
+  </si>
+  <si>
+    <t>RuleType</t>
+  </si>
+  <si>
+    <t>Record Type</t>
+  </si>
+  <si>
+    <t>DC_EventHover_1</t>
+  </si>
+  <si>
+    <t>DC_EventHover_2</t>
+  </si>
+  <si>
+    <t>DC_EventHover_3</t>
+  </si>
+  <si>
+    <t>DC_EventHover_4</t>
+  </si>
+  <si>
+    <t>Event Hover Rule</t>
+  </si>
+  <si>
+    <t>SVMX Rule</t>
+  </si>
+  <si>
+    <t>ProcessID</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>DC EventHover Rule 1</t>
   </si>
 </sst>
 </file>
@@ -4149,22 +4210,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D09BF47-0BEF-3F40-B1E2-58BD07A87911}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -4175,40 +4237,43 @@
         <v>538</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -4216,37 +4281,40 @@
         <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E2" t="s">
         <v>246</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
         <v>246</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -4254,37 +4322,40 @@
         <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E3" t="s">
         <v>248</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>249</v>
       </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
         <v>248</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -4292,33 +4363,36 @@
         <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" t="s">
         <v>250</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>249</v>
       </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
         <v>250</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" t="b">
+      <c r="M4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4331,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081F5C48-5C8A-2B40-880E-78E2D2FE281A}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8099,4 +8173,125 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7584CD-EFCD-FB46-B820-2B62C77B1DC0}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E5" t="s">
+        <v>601</v>
+      </c>
+      <c r="F5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>